--- a/card_data/D/counter-revolution.xlsx
+++ b/card_data/D/counter-revolution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alyssa/Documents/GitHub/playing-cards/backend/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryaanahmed\dev\french-playing-cards\card_data\D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD910CC-2E72-3E4D-8C04-2011CD4AB900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A4FDA1-D9C7-4026-8877-EE84E8B7F646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17560" windowHeight="16460" xr2:uid="{7F5CDC5C-C3A2-A647-988B-30F25FFDF368}"/>
+    <workbookView xWindow="0" yWindow="503" windowWidth="17558" windowHeight="16463" xr2:uid="{7F5CDC5C-C3A2-A647-988B-30F25FFDF368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -555,16 +546,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9486B0F7-E808-1543-BF4D-F91CA156C1DC}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -634,7 +625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -666,7 +657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -698,7 +689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -730,7 +721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -762,7 +753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -794,7 +785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -826,7 +817,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -858,7 +849,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -890,7 +881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -922,7 +913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -954,7 +945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -986,7 +977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1018,7 +1009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1050,7 +1041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1114,7 +1105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1146,7 +1137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1178,7 +1169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1189,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
@@ -1210,7 +1201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1274,7 +1265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1306,7 +1297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1338,7 +1329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>42</v>
       </c>
